--- a/app/src/docs/webservices.xlsx
+++ b/app/src/docs/webservices.xlsx
@@ -514,51 +514,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">name: String
-about_me: Stirng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>profile_picture_name: String
-profile_picture.id: int
-cover_picture_name: String
-cover_picture.id:int
-friend_request_number: int
-reviews_number: int
-followed_businesses_number:int
-frineds_number
-permission: jsonObject
-friendship_relation_status_code: int
-businesses:jsonObjec (business.id &amp; 
-business_id)
-check_in: jsonObject(business_id:list)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if visited_user_id and visitor_user_id are 
-equal, it means the user is visiting his 
-own profile page, then friendship_relationg_status_code
-must be null and User should see his businesses. Otherwise friendship_relationg_status_code
-will be initialized base on the realtion between visitor and visited user and therefor the permission and the businessed must be null.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">list:{
     business.id: int
     business_id:String
@@ -752,30 +707,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>rate: int (between 1 to 5)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>visited_user.id:int
-visitor_user.id:int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
   </si>
   <si>
@@ -1096,7 +1027,31 @@
 After successful update, GetUserHomeInfo returns old profile picture</t>
   </si>
   <si>
-    <t>retuns null for subcategory</t>
+    <t xml:space="preserve">visited_user.id:int
+visitor_user.id:int
+</t>
+  </si>
+  <si>
+    <t>Error code: 08
+retuns null for subcategory</t>
+  </si>
+  <si>
+    <t>name: String
+about_me: Stirng
+profile_picture.id: int
+cover_picture.id:int
+friend_request_number: int
+reviews_number: int
+followed_businesses_number:int
+frineds_number
+permission: jsonObject
+friendship_relation_status_code: int
+businesses:jsonObjec (business.id &amp; 
+business_id)
+check_in: jsonObject(business_id:list)</t>
+  </si>
+  <si>
+    <t>returns pictures as string not int</t>
   </si>
 </sst>
 </file>
@@ -1237,19 +1192,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1557,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,25 +1534,25 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -1609,7 +1564,7 @@
       <c r="C4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1619,22 +1574,22 @@
         <v>97</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="21"/>
+        <v>114</v>
+      </c>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>143</v>
+      <c r="D6" s="21" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="315" x14ac:dyDescent="0.25">
@@ -1647,8 +1602,8 @@
       <c r="C7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>141</v>
+      <c r="D7" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="315" x14ac:dyDescent="0.25">
@@ -1662,7 +1617,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="300" x14ac:dyDescent="0.25">
@@ -1675,7 +1630,7 @@
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1687,19 +1642,19 @@
       <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1711,7 +1666,7 @@
       <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1723,7 +1678,7 @@
       <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1735,20 +1690,20 @@
       <c r="C14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>104</v>
+        <v>143</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -1761,7 +1716,7 @@
       <c r="C16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1771,58 +1726,58 @@
         <v>71</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="21"/>
+        <v>120</v>
+      </c>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>142</v>
+        <v>120</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1833,33 +1788,33 @@
         <v>64</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="21"/>
+        <v>122</v>
+      </c>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -1869,9 +1824,9 @@
         <v>73</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -1881,21 +1836,21 @@
         <v>74</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -1905,9 +1860,9 @@
         <v>72</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="21"/>
+        <v>126</v>
+      </c>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -1917,21 +1872,21 @@
         <v>75</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="21"/>
+        <v>125</v>
+      </c>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -1943,7 +1898,7 @@
       <c r="C31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -1955,8 +1910,8 @@
       <c r="C32" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>134</v>
+      <c r="D32" s="20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1969,7 +1924,7 @@
       <c r="C33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -1981,7 +1936,7 @@
       <c r="C34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -1993,8 +1948,8 @@
       <c r="C35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>134</v>
+      <c r="D35" s="20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2007,7 +1962,7 @@
       <c r="C36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -2019,8 +1974,8 @@
       <c r="C37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="21" t="s">
-        <v>118</v>
+      <c r="D37" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2033,8 +1988,8 @@
       <c r="C38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>118</v>
+      <c r="D38" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2045,9 +2000,9 @@
         <v>64</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="21"/>
+        <v>127</v>
+      </c>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -2059,7 +2014,7 @@
       <c r="C40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="21"/>
+      <c r="D40" s="20"/>
     </row>
     <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -2071,7 +2026,7 @@
       <c r="C41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="21"/>
+      <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -2081,9 +2036,9 @@
         <v>70</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="21"/>
+        <v>123</v>
+      </c>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -2093,9 +2048,9 @@
         <v>70</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="21"/>
+        <v>123</v>
+      </c>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -2107,7 +2062,7 @@
       <c r="C44" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="21"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -2117,9 +2072,9 @@
         <v>84</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -2129,9 +2084,9 @@
         <v>85</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="21"/>
+        <v>128</v>
+      </c>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -2141,21 +2096,21 @@
         <v>75</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="21"/>
+        <v>129</v>
+      </c>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="21"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
@@ -2167,7 +2122,7 @@
       <c r="C49" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="21"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -2179,19 +2134,19 @@
       <c r="C50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="21"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="21"/>
+        <v>132</v>
+      </c>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -2201,9 +2156,9 @@
         <v>86</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="21"/>
+        <v>134</v>
+      </c>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
@@ -2215,19 +2170,19 @@
       <c r="C53" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="21"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" s="21"/>
+        <v>136</v>
+      </c>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
@@ -2239,23 +2194,23 @@
       <c r="C55" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="21"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="21"/>
+      <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
-      <c r="D57" s="21"/>
+      <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>

--- a/app/src/docs/webservices.xlsx
+++ b/app/src/docs/webservices.xlsx
@@ -1014,10 +1014,6 @@
     <t>GetPost</t>
   </si>
   <si>
-    <t>insert null instead of BusinessId
-insert two imageId for each business in ImageOfBusiness</t>
-  </si>
-  <si>
     <t>Error: End point not found</t>
   </si>
   <si>
@@ -1030,10 +1026,6 @@
     <t xml:space="preserve">visited_user.id:int
 visitor_user.id:int
 </t>
-  </si>
-  <si>
-    <t>Error code: 08
-retuns null for subcategory</t>
   </si>
   <si>
     <t>name: String
@@ -1052,6 +1044,16 @@
   </si>
   <si>
     <t>returns pictures as string not int</t>
+  </si>
+  <si>
+    <t>insert null instead of BusinessId
+insert two imageId for each business in ImageOfBusiness
+there is no website field in Business table</t>
+  </si>
+  <si>
+    <t>Error code: 08
+retuns null for subcategory
+test hashtags in ActivityBusiness_step1</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1097,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1132,6 +1134,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1145,7 +1153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1194,6 +1202,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1204,6 +1215,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1512,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,21 +1551,21 @@
       <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1564,7 +1578,7 @@
       <c r="C4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1588,8 +1602,8 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>140</v>
+      <c r="D6" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="315" x14ac:dyDescent="0.25">
@@ -1602,12 +1616,12 @@
       <c r="C7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>138</v>
+      <c r="D7" s="24" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1616,12 +1630,12 @@
       <c r="C8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>142</v>
+      <c r="D8" s="22" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="300" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1630,7 +1644,7 @@
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1697,17 +1711,17 @@
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>144</v>
+      <c r="D15" s="22" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1767,7 +1781,7 @@
       <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1777,7 +1791,7 @@
         <v>120</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1793,7 +1807,7 @@
       <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="6" t="s">

--- a/app/src/docs/webservices.xlsx
+++ b/app/src/docs/webservices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="137">
   <si>
     <t>Input</t>
   </si>
@@ -229,12 +229,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>user.id: the id of record in the user table
-user_id: user identifier like "ali_1"
-business.id: the id of record in the business table
-business_id: business identifir like "macdonald_23"</t>
   </si>
   <si>
     <t>business.id: int
@@ -726,9 +720,6 @@
     </r>
   </si>
   <si>
-    <t>Error 02</t>
-  </si>
-  <si>
     <t xml:space="preserve">user.id: int
 name: String
 email: String
@@ -961,9 +952,6 @@
 review.id: int
 text: String
 rate: int</t>
-  </si>
-  <si>
-    <t>Error 10</t>
   </si>
   <si>
     <t>list{
@@ -1014,15 +1002,6 @@
     <t>GetPost</t>
   </si>
   <si>
-    <t>Error: End point not found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-birthdate: "1392/1/10" or "1392/2/10" or "1392/3/10" or "1392/4/10" : {"Error":{"ErrorCode":"Month must be between one and twelve.\u000d\u000aParameter name: month"},"Result":"False","SuccessStatus":false}
-user.id=12 has 14 images!!!!!!!!
-After successful update, GetUserHomeInfo returns old profile picture</t>
-  </si>
-  <si>
     <t xml:space="preserve">visited_user.id:int
 visitor_user.id:int
 </t>
@@ -1041,19 +1020,6 @@
 businesses:jsonObjec (business.id &amp; 
 business_id)
 check_in: jsonObject(business_id:list)</t>
-  </si>
-  <si>
-    <t>returns pictures as string not int</t>
-  </si>
-  <si>
-    <t>insert null instead of BusinessId
-insert two imageId for each business in ImageOfBusiness
-there is no website field in Business table</t>
-  </si>
-  <si>
-    <t>Error code: 08
-retuns null for subcategory
-test hashtags in ActivityBusiness_step1</t>
   </si>
 </sst>
 </file>
@@ -1211,13 +1177,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1526,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,22 +1516,20 @@
       </c>
       <c r="D1" s="20"/>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="22" t="s">
-        <v>67</v>
-      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1576,7 +1540,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="23"/>
     </row>
@@ -1585,10 +1549,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="20"/>
     </row>
@@ -1597,317 +1561,307 @@
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>139</v>
-      </c>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>143</v>
-      </c>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>144</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:4" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>126</v>
+      <c r="C28" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="B30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="B31" s="6" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>4</v>
@@ -1916,45 +1870,43 @@
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="20"/>
+    </row>
+    <row r="34" spans="1:4" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="B34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>76</v>
@@ -1962,16 +1914,14 @@
       <c r="C35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>4</v>
@@ -1980,221 +1930,217 @@
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="C39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="C41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>123</v>
+      <c r="C42" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="B44" s="7" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="7" t="s">
+      <c r="C47" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="20"/>
-    </row>
-    <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="1:4" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="C53" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="20"/>
-    </row>
-    <row r="54" spans="1:4" ht="300" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>136</v>
+      <c r="C54" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D54" s="20"/>
     </row>
@@ -2203,7 +2149,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>58</v>
@@ -2212,7 +2158,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
@@ -2220,7 +2166,7 @@
     </row>
     <row r="57" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
@@ -2242,10 +2188,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2272,24 +2218,24 @@
     </row>
     <row r="63" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/webservices.xlsx
+++ b/app/src/docs/webservices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="143">
   <si>
     <t>Input</t>
   </si>
@@ -1017,12 +1017,6 @@
     <t>Error: End point not found</t>
   </si>
   <si>
-    <t xml:space="preserve">
-birthdate: "1392/1/10" or "1392/2/10" or "1392/3/10" or "1392/4/10" : {"Error":{"ErrorCode":"Month must be between one and twelve.\u000d\u000aParameter name: month"},"Result":"False","SuccessStatus":false}
-user.id=12 has 14 images!!!!!!!!
-After successful update, GetUserHomeInfo returns old profile picture</t>
-  </si>
-  <si>
     <t xml:space="preserve">visited_user.id:int
 visitor_user.id:int
 </t>
@@ -1041,9 +1035,6 @@
 businesses:jsonObjec (business.id &amp; 
 business_id)
 check_in: jsonObject(business_id:list)</t>
-  </si>
-  <si>
-    <t>returns pictures as string not int</t>
   </si>
   <si>
     <t>insert null instead of BusinessId
@@ -1211,13 +1202,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1526,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,21 +1542,21 @@
       <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1602,9 +1593,7 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>139</v>
-      </c>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
@@ -1617,11 +1606,11 @@
         <v>64</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1631,7 +1620,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="300" x14ac:dyDescent="0.25">
@@ -1647,7 +1636,7 @@
       <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1659,7 +1648,7 @@
       <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1671,7 +1660,7 @@
       <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1683,7 +1672,7 @@
       <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1711,17 +1700,15 @@
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>142</v>
-      </c>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1733,7 +1720,7 @@
       <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1745,7 +1732,7 @@
       <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1757,7 +1744,7 @@
       <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1768,146 +1755,146 @@
       </c>
       <c r="D19" s="20"/>
     </row>
-    <row r="20" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:4" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>126</v>
+      <c r="C28" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>4</v>
@@ -1916,21 +1903,19 @@
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>76</v>
@@ -1938,66 +1923,66 @@
       <c r="C33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D33" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="C35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="20" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>4</v>
@@ -2006,57 +1991,59 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="C41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>123</v>
+      <c r="C42" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>70</v>
@@ -2066,135 +2053,135 @@
       </c>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="20"/>
-    </row>
-    <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="C49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="C50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="C51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B52" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="1:4" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="20"/>
-    </row>
-    <row r="54" spans="1:4" ht="300" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>136</v>
+      <c r="C54" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D54" s="20"/>
     </row>

--- a/app/src/docs/webservices.xlsx
+++ b/app/src/docs/webservices.xlsx
@@ -1517,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,7 +1768,7 @@
       <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1780,7 +1780,7 @@
       <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="6" t="s">

--- a/app/src/docs/webservices.xlsx
+++ b/app/src/docs/webservices.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="Input">Sheet1!$B:$B</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="149">
   <si>
     <t>Input</t>
   </si>
@@ -1046,12 +1046,33 @@
 retuns null for subcategory
 test hashtags in ActivityBusiness_step1</t>
   </si>
+  <si>
+    <t>user_profile_picture_name:: we don't have in class</t>
+  </si>
+  <si>
+    <t>we don't use this in project for now, right ?</t>
+  </si>
+  <si>
+    <t>When it has no reviews :: undefined error</t>
+  </si>
+  <si>
+    <t>Rate :: incorrect ( 0.0 )   – userId :: 0 – userPictureId:: 0 – check again please</t>
+  </si>
+  <si>
+    <t>incorrectly, I could write 2 reviews on one business</t>
+  </si>
+  <si>
+    <t>execution error on submitting rate without review</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]General"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,8 +1108,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1131,6 +1158,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1141,10 +1174,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1193,9 +1227,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1211,8 +1242,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1517,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,21 +1578,21 @@
       <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1569,7 +1605,7 @@
       <c r="C4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1593,7 +1629,7 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
@@ -1605,12 +1641,12 @@
       <c r="C7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1619,7 +1655,7 @@
       <c r="C8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1633,7 +1669,7 @@
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -1672,7 +1708,7 @@
       <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1705,7 +1741,7 @@
       <c r="C15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -1756,7 +1792,7 @@
       <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" ht="300" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>135</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1794,7 +1830,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1803,10 +1839,12 @@
       <c r="C23" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="27" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1818,7 +1856,7 @@
       <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1830,7 +1868,7 @@
       <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1839,10 +1877,12 @@
       <c r="C26" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="20"/>
+      <c r="D26" s="27" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1854,7 +1894,7 @@
       <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1866,7 +1906,7 @@
       <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1875,10 +1915,12 @@
       <c r="C29" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="20"/>
+      <c r="D29" s="27" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -1887,10 +1929,12 @@
       <c r="C30" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="27" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1899,10 +1943,12 @@
       <c r="C31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="27" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -1911,7 +1957,9 @@
       <c r="C32" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="27" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">

--- a/app/src/docs/webservices.xlsx
+++ b/app/src/docs/webservices.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="Input">Sheet1!$B:$B</definedName>
   </definedNames>
-  <calcPr calcId="122211" iterateDelta="1E-4"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="150">
   <si>
     <t>Input</t>
   </si>
@@ -229,12 +229,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>user.id: the id of record in the user table
-user_id: user identifier like "ali_1"
-business.id: the id of record in the business table
-business_id: business identifir like "macdonald_23"</t>
   </si>
   <si>
     <t>business.id: int
@@ -744,9 +738,6 @@
 subcategory:String</t>
   </si>
   <si>
-    <t>Send critics</t>
-  </si>
-  <si>
     <t xml:space="preserve">business.id: int
 title: String
 picture: String
@@ -1011,9 +1002,6 @@
 </t>
   </si>
   <si>
-    <t>GetPost</t>
-  </si>
-  <si>
     <t>Error: End point not found</t>
   </si>
   <si>
@@ -1064,6 +1052,61 @@
   <si>
     <t>execution error on submitting rate without review</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user.id: the id of record in the user table
+user_id: user identifier like "ali_1"
+business.id: the id of record in the business table
+business_id: business identifir like "macdonald_23"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>brown notes in cloumn D are made by Mr.Khalili</t>
+    </r>
+  </si>
+  <si>
+    <t>unfollow</t>
+  </si>
+  <si>
+    <t>unfriend</t>
+  </si>
+  <si>
+    <r>
+      <t>list:{
+    post.id: int
+    business.id: int
+    business_id: String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    business_profile_picture.id: int
+    creation_date: String (MM/DD/YYYY)
+    title: String
+    picture_medium.id: int
+    picture_large.id: int
+    description: String
+    price: String
+    code: String
+    is_liked: boolean
+    hashtag_list: list:{String}
+}
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1072,7 +1115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1113,6 +1156,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1178,7 +1234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1237,15 +1293,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1553,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,22 +1637,22 @@
       </c>
       <c r="D1" s="20"/>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="21" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1603,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="22"/>
     </row>
@@ -1612,10 +1672,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="20"/>
     </row>
@@ -1624,7 +1684,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>4</v>
@@ -1636,13 +1696,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="315" x14ac:dyDescent="0.25">
@@ -1653,10 +1713,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="300" x14ac:dyDescent="0.25">
@@ -1664,7 +1724,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>4</v>
@@ -1676,7 +1736,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -1688,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>4</v>
@@ -1700,7 +1760,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>4</v>
@@ -1712,7 +1772,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>4</v>
@@ -1724,7 +1784,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>4</v>
@@ -1736,10 +1796,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D15" s="21"/>
     </row>
@@ -1748,7 +1808,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>52</v>
@@ -1760,10 +1820,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="20"/>
     </row>
@@ -1772,7 +1832,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>4</v>
@@ -1784,200 +1844,200 @@
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="1:4" ht="300" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D20" s="20"/>
     </row>
-    <row r="21" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>21</v>
+    <row r="21" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>26</v>
+      <c r="D25" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="C27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="27" t="s">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="30" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="6" t="s">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="C32" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D32" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D33" s="20"/>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>76</v>
@@ -1987,35 +2047,35 @@
       </c>
       <c r="D34" s="20"/>
     </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>78</v>
@@ -2023,11 +2083,13 @@
       <c r="C37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D37" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>79</v>
@@ -2036,38 +2098,36 @@
         <v>4</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>127</v>
+      <c r="C40" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D40" s="20"/>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>81</v>
@@ -2077,185 +2137,185 @@
       </c>
       <c r="D41" s="20"/>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="D45" s="20"/>
     </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D46" s="20"/>
     </row>
-    <row r="47" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D52" s="20"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>134</v>
+      <c r="C53" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D53" s="20"/>
     </row>
-    <row r="54" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
+    <row r="56" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
@@ -2277,10 +2337,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2307,24 +2367,24 @@
     </row>
     <row r="63" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/webservices.xlsx
+++ b/app/src/docs/webservices.xlsx
@@ -1299,13 +1299,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1613,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,21 +1638,21 @@
       <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="21" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
       <c r="C22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="28" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       <c r="C25" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="28" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       <c r="C29" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="28" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       <c r="C30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="28" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       <c r="C31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="28" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2293,32 +2293,32 @@
       </c>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="1:4" ht="300" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">

--- a/app/src/docs/webservices.xlsx
+++ b/app/src/docs/webservices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
   <si>
     <t>Input</t>
   </si>
@@ -720,9 +720,6 @@
     </r>
   </si>
   <si>
-    <t>Error 02</t>
-  </si>
-  <si>
     <t xml:space="preserve">user.id: int
 name: String
 email: String
@@ -1107,6 +1104,36 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>id: 0</t>
+  </si>
+  <si>
+    <t>we don't have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because of 0 business id I'm not sure it's working or not ( get comments web service not working cprrectly ) --- wrong comments count in business after deleting cm.....    </t>
+  </si>
+  <si>
+    <t>business comments count is wrong after adding comment…</t>
+  </si>
+  <si>
+    <t>به دلیل مشکل وب سرویس دریافت لیست دنبال کنندگان موفق به تست نشدم  لطفأ خطای ارور بررسی شود</t>
+  </si>
+  <si>
+    <t>به دلیل مشکل وب سرویس قادر به جستجوی کاربران نبودم – پس از حل مشکل تست خواهد شد</t>
+  </si>
+  <si>
+    <t>I don’t know how to check..</t>
+  </si>
+  <si>
+    <t>execution error</t>
+  </si>
+  <si>
+    <t>post id and business id are 0</t>
+  </si>
+  <si>
+    <t>I couldn't found any web service in application</t>
+  </si>
 </sst>
 </file>
 
@@ -1115,7 +1142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,8 +1197,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1220,6 +1254,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1234,7 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,6 +1370,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1613,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1720,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,7 +1760,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>4</v>
@@ -1702,7 +1778,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="315" x14ac:dyDescent="0.25">
@@ -1716,7 +1792,7 @@
         <v>99</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="300" x14ac:dyDescent="0.25">
@@ -1748,7 +1824,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>4</v>
@@ -1796,10 +1872,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="D15" s="21"/>
     </row>
@@ -1859,7 +1935,7 @@
         <v>105</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="20"/>
     </row>
@@ -1871,10 +1947,10 @@
         <v>106</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1888,7 +1964,7 @@
         <v>107</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -1908,10 +1984,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="D24" s="20"/>
     </row>
@@ -1926,20 +2002,22 @@
         <v>110</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="20"/>
+        <v>121</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -1961,10 +2039,10 @@
         <v>71</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -1975,10 +2053,10 @@
         <v>74</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1986,13 +2064,13 @@
         <v>31</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2006,11 +2084,11 @@
         <v>4</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -2020,11 +2098,11 @@
         <v>4</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2033,10 +2111,12 @@
       <c r="C33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="20"/>
+      <c r="D33" s="32" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -2045,10 +2125,12 @@
       <c r="C34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="32" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -2057,12 +2139,12 @@
       <c r="C35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>129</v>
+      <c r="D35" s="32" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="34" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -2071,7 +2153,9 @@
       <c r="C36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="32" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -2083,8 +2167,8 @@
       <c r="C37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="20" t="s">
-        <v>114</v>
+      <c r="D37" s="35" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2097,8 +2181,8 @@
       <c r="C38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>114</v>
+      <c r="D38" s="35" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2109,9 +2193,11 @@
         <v>64</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="20"/>
+        <v>124</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -2123,7 +2209,9 @@
       <c r="C40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="20"/>
+      <c r="D40" s="36" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -2135,7 +2223,9 @@
       <c r="C41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="20"/>
+      <c r="D41" s="36" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -2145,9 +2235,11 @@
         <v>69</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -2157,12 +2249,14 @@
         <v>69</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="33" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -2174,14 +2268,14 @@
       <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" s="20"/>
     </row>
@@ -2193,9 +2287,11 @@
         <v>84</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="20"/>
+        <v>125</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -2205,12 +2301,14 @@
         <v>74</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="20"/>
+        <v>126</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -2219,10 +2317,12 @@
       <c r="C48" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="20"/>
+      <c r="D48" s="32" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -2231,7 +2331,9 @@
       <c r="C49" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="20"/>
+      <c r="D49" s="32" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="50" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -2243,34 +2345,38 @@
       <c r="C50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="20"/>
+      <c r="D50" s="32"/>
     </row>
     <row r="51" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="52" spans="1:4" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="19" t="s">
         <v>86</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" s="20"/>
+        <v>131</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="53" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -2279,7 +2385,9 @@
       <c r="C53" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="20"/>
+      <c r="D53" s="32" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -2295,7 +2403,7 @@
     </row>
     <row r="55" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -2303,7 +2411,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
@@ -2311,13 +2419,13 @@
     </row>
     <row r="57" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57" s="20"/>
     </row>

--- a/app/src/docs/webservices.xlsx
+++ b/app/src/docs/webservices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="165">
   <si>
     <t>Input</t>
   </si>
@@ -999,9 +999,6 @@
 </t>
   </si>
   <si>
-    <t>Error: End point not found</t>
-  </si>
-  <si>
     <t xml:space="preserve">visited_user.id:int
 visitor_user.id:int
 </t>
@@ -1022,11 +1019,6 @@
 check_in: jsonObject(business_id:list)</t>
   </si>
   <si>
-    <t>insert null instead of BusinessId
-insert two imageId for each business in ImageOfBusiness
-there is no website field in Business table</t>
-  </si>
-  <si>
     <t>Error code: 08
 retuns null for subcategory
 test hashtags in ActivityBusiness_step1</t>
@@ -1133,6 +1125,35 @@
   </si>
   <si>
     <t>I couldn't found any web service in application</t>
+  </si>
+  <si>
+    <t>value of CreationDate is inserted as wrong value</t>
+  </si>
+  <si>
+    <t>{"Error":{"ErrorCode":"Value cannot be null.\u000d\u000aParameter name: entity"},
+"Result":"False","SuccessStatus":false}</t>
+  </si>
+  <si>
+    <t>WorkTimeClose: "08:00"
+WorkTimeOpen: "22:00"
+insert 0 in database</t>
+  </si>
+  <si>
+    <t>Error code 10</t>
+  </si>
+  <si>
+    <t>If you implement this webservice many times, a new record will be inserted each time.</t>
+  </si>
+  <si>
+    <t>It doesn't check existing records.</t>
+  </si>
+  <si>
+    <t>post.id:5
+this post's comment_list has 4 comments while the post has only 2 comments
+comment_list should only return last three comments of the post:</t>
+  </si>
+  <si>
+    <t>Doesn't check existing records</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1226,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1245,12 +1266,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,28 +1375,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1689,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,21 +1729,21 @@
       <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1765,7 +1780,9 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="23" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
@@ -1778,11 +1795,11 @@
         <v>64</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1792,11 +1809,11 @@
         <v>99</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="300" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1805,7 +1822,9 @@
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="23" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -1829,7 +1848,9 @@
       <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
@@ -1841,10 +1862,12 @@
       <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="D12" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1853,7 +1876,9 @@
       <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="23" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1868,14 +1893,14 @@
       <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="D15" s="21"/>
     </row>
@@ -1925,7 +1950,9 @@
       <c r="C19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="20" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -1937,7 +1964,9 @@
       <c r="C20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
@@ -1947,10 +1976,10 @@
         <v>106</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>134</v>
+        <v>146</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1963,8 +1992,8 @@
       <c r="C22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>139</v>
+      <c r="D22" s="27" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -1992,7 +2021,7 @@
       <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -2001,12 +2030,12 @@
       <c r="C25" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>140</v>
+      <c r="D25" s="27" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -2016,7 +2045,7 @@
         <v>121</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -2042,7 +2071,7 @@
         <v>123</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -2055,8 +2084,8 @@
       <c r="C29" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>142</v>
+      <c r="D29" s="27" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2069,8 +2098,8 @@
       <c r="C30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>143</v>
+      <c r="D30" s="27" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2083,12 +2112,12 @@
       <c r="C31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>144</v>
+      <c r="D31" s="27" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -2097,8 +2126,8 @@
       <c r="C32" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>128</v>
+      <c r="D32" s="27" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2111,8 +2140,8 @@
       <c r="C33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="32" t="s">
-        <v>150</v>
+      <c r="D33" s="30" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2125,12 +2154,12 @@
       <c r="C34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="32" t="s">
-        <v>152</v>
+      <c r="D34" s="30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -2139,12 +2168,12 @@
       <c r="C35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -2153,8 +2182,8 @@
       <c r="C36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>151</v>
+      <c r="D36" s="30" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2167,8 +2196,8 @@
       <c r="C37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="35" t="s">
-        <v>153</v>
+      <c r="D37" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2181,8 +2210,8 @@
       <c r="C38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="35" t="s">
-        <v>153</v>
+      <c r="D38" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2195,8 +2224,8 @@
       <c r="C39" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="35" t="s">
-        <v>153</v>
+      <c r="D39" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2209,8 +2238,8 @@
       <c r="C40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="36" t="s">
-        <v>154</v>
+      <c r="D40" s="34" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2223,8 +2252,8 @@
       <c r="C41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="36" t="s">
-        <v>154</v>
+      <c r="D41" s="34" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2237,8 +2266,8 @@
       <c r="C42" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="36" t="s">
-        <v>154</v>
+      <c r="D42" s="34" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2251,12 +2280,12 @@
       <c r="C43" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="36" t="s">
-        <v>154</v>
+      <c r="D43" s="34" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -2268,7 +2297,7 @@
       <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -2289,8 +2318,8 @@
       <c r="C46" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="36" t="s">
-        <v>155</v>
+      <c r="D46" s="34" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -2303,8 +2332,8 @@
       <c r="C47" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="36" t="s">
-        <v>155</v>
+      <c r="D47" s="34" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2317,8 +2346,8 @@
       <c r="C48" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="32" t="s">
-        <v>144</v>
+      <c r="D48" s="30" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2331,8 +2360,8 @@
       <c r="C49" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>150</v>
+      <c r="D49" s="30" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2345,7 +2374,7 @@
       <c r="C50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="32"/>
+      <c r="D50" s="30"/>
     </row>
     <row r="51" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
@@ -2357,8 +2386,8 @@
       <c r="C51" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="32" t="s">
-        <v>156</v>
+      <c r="D51" s="30" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -2371,8 +2400,8 @@
       <c r="C52" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="32" t="s">
-        <v>157</v>
+      <c r="D52" s="30" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2385,8 +2414,8 @@
       <c r="C53" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="32" t="s">
-        <v>158</v>
+      <c r="D53" s="30" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2403,7 +2432,7 @@
     </row>
     <row r="55" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -2411,7 +2440,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
